--- a/SeleniumUnit/src/main/java/testData/testData.xlsx
+++ b/SeleniumUnit/src/main/java/testData/testData.xlsx
@@ -31,28 +31,20 @@
     <t>Apache_POI_TC</t>
   </si>
   <si>
-    <t>tetsuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
+    <t>wigios</t>
+  </si>
+  <si>
+    <t>Pruebas01.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,16 +67,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,7 +376,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,14 +405,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>